--- a/capiq_data/in_process_data/IQ2689126.xlsx
+++ b/capiq_data/in_process_data/IQ2689126.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5E97B6-856E-4166-A939-9069CD4D3432}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E670EB5C-A3AA-425E-BD82-6B83E5D1F47F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"1d7b310f-bdf7-4fb9-857f-0d5fa0cadfdb"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"ac0c49e3-4777-4c07-9c87-8b7adedc7a93"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$53</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$53</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$53</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$53</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$53</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$53</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$53</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$53</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$53</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$53</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$53</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$53</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$53</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$53</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$53</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$53</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$53</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$53</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$53</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$53</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$53</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$53</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$53</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$53</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$53</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$53</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$53</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,39 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +672,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,31 +766,31 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>39536</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>16.140999999999998</v>
+        <v>-2.5434999999999999</v>
       </c>
       <c r="D2">
-        <v>93.599000000000004</v>
+        <v>49.155500000000004</v>
       </c>
       <c r="E2">
-        <v>72.335999999999999</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>69.376000000000005</v>
+        <v>33.266500000000001</v>
       </c>
       <c r="G2">
-        <v>420.15800000000002</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>545.42200000000003</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>12.760999999999999</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -772,75 +805,75 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>218.38200000000001</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>312.96800000000002</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>-10.28</v>
+        <v>14.22</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>39536</v>
       </c>
       <c r="S2">
-        <v>1336</v>
+        <v>0</v>
       </c>
       <c r="T2">
-        <v>232.45400000000001</v>
+        <v>-18.925000000000001</v>
       </c>
       <c r="U2">
-        <v>66.858999999999995</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>31.423999999999999</v>
+        <v>7.9215</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>6.8079999999999998</v>
+        <v>0.59550000000000003</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>-48.097999999999999</v>
+        <v>6.8739999999999997</v>
       </c>
       <c r="AA2">
-        <v>16.140999999999998</v>
+        <v>-2.5434999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>39628</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>13.587</v>
+        <v>-2.5434999999999999</v>
       </c>
       <c r="D3">
-        <v>93.266000000000005</v>
+        <v>49.155500000000004</v>
       </c>
       <c r="E3">
-        <v>71.325999999999993</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>69.849999999999994</v>
+        <v>33.266500000000001</v>
       </c>
       <c r="G3">
-        <v>404.14100000000002</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>587.75300000000004</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>8.6959999999999997</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -855,75 +888,75 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>235.92400000000001</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>329.661</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2.1219999999999999</v>
+        <v>14.22</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>39628</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>258.09199999999998</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>68.980999999999995</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>40.176000000000002</v>
+        <v>7.9215</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>8.0749999999999993</v>
+        <v>0.59550000000000003</v>
       </c>
       <c r="Y3">
         <v>0</v>
       </c>
       <c r="Z3">
-        <v>-46.24</v>
+        <v>6.8739999999999997</v>
       </c>
       <c r="AA3">
-        <v>13.587</v>
+        <v>-2.5434999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>39719</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>14.494</v>
+        <v>4.5069999999999997</v>
       </c>
       <c r="D4">
-        <v>103.023</v>
+        <v>54.414000000000001</v>
       </c>
       <c r="E4">
-        <v>72.212000000000003</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>76.465000000000003</v>
+        <v>38.573999999999998</v>
       </c>
       <c r="G4">
-        <v>454.41199999999998</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>635.23500000000001</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>13.207000000000001</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -938,75 +971,75 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>246.28899999999999</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>347.71499999999997</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>9.0380000000000003</v>
+        <v>-34.655000000000001</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>39719</v>
       </c>
       <c r="S4">
-        <v>1475</v>
+        <v>0</v>
       </c>
       <c r="T4">
-        <v>287.52</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>78.019000000000005</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>34.067999999999998</v>
+        <v>3.2629999999999999</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>7.6349999999999998</v>
+        <v>0.75800000000000001</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>-29.574000000000002</v>
+        <v>-38.631999999999998</v>
       </c>
       <c r="AA4">
-        <v>14.494</v>
+        <v>4.5069999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>39810</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>17.917000000000002</v>
+        <v>7.9429999999999996</v>
       </c>
       <c r="D5">
-        <v>116.426</v>
+        <v>59.066000000000003</v>
       </c>
       <c r="E5">
-        <v>75.834999999999994</v>
+        <v>46.042999999999999</v>
       </c>
       <c r="F5">
-        <v>85.287000000000006</v>
+        <v>41.212000000000003</v>
       </c>
       <c r="G5">
-        <v>503.92599999999999</v>
+        <v>188.46100000000001</v>
       </c>
       <c r="H5">
-        <v>670.98699999999997</v>
+        <v>199.10499999999999</v>
       </c>
       <c r="I5">
-        <v>15.342000000000001</v>
+        <v>7.0039999999999996</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -1021,75 +1054,75 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>251.667</v>
+        <v>150.268</v>
       </c>
       <c r="O5">
-        <v>354.12</v>
+        <v>204.334</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>-11.388999999999999</v>
+        <v>-8.625</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>39810</v>
       </c>
       <c r="S5">
-        <v>1527</v>
+        <v>0</v>
       </c>
       <c r="T5">
-        <v>316.86700000000002</v>
+        <v>-5.2290000000000001</v>
       </c>
       <c r="U5">
-        <v>66.63</v>
+        <v>56.570999999999998</v>
       </c>
       <c r="V5">
-        <v>36.039000000000001</v>
+        <v>18.579999999999998</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>7.5720000000000001</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>-51.615000000000002</v>
+        <v>-23.962</v>
       </c>
       <c r="AA5">
-        <v>17.917000000000002</v>
+        <v>7.9429999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>39901</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>16.494</v>
+        <v>3.774</v>
       </c>
       <c r="D6">
-        <v>120.861</v>
+        <v>54.194000000000003</v>
       </c>
       <c r="E6">
-        <v>95.522000000000006</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>88.376000000000005</v>
+        <v>39.54</v>
       </c>
       <c r="G6">
-        <v>523.57000000000005</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>734.74699999999996</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>19.768000000000001</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1104,75 +1137,75 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>266.86399999999998</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>376.39299999999997</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>5.36</v>
+        <v>-7.056</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>39901</v>
       </c>
       <c r="S6">
-        <v>1583</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>358.35399999999998</v>
+        <v>-5.2290000000000001</v>
       </c>
       <c r="U6">
-        <v>71.989999999999995</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>22.559000000000001</v>
+        <v>15.571</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>16.515000000000001</v>
+        <v>-7.319</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>-33.15</v>
+        <v>-12.443</v>
       </c>
       <c r="AA6">
-        <v>16.494</v>
+        <v>3.774</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>39992</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>14.173</v>
+        <v>4.5759999999999996</v>
       </c>
       <c r="D7">
-        <v>117.247</v>
+        <v>61.344999999999999</v>
       </c>
       <c r="E7">
-        <v>84.759</v>
+        <v>43.542999999999999</v>
       </c>
       <c r="F7">
-        <v>86.203999999999994</v>
+        <v>44.366</v>
       </c>
       <c r="G7">
-        <v>551.5</v>
+        <v>194.82900000000001</v>
       </c>
       <c r="H7">
-        <v>788.44399999999996</v>
+        <v>210.56800000000001</v>
       </c>
       <c r="I7">
-        <v>13.763999999999999</v>
+        <v>7.7370000000000001</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1187,75 +1220,75 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>270.96100000000001</v>
+        <v>163.19800000000001</v>
       </c>
       <c r="O7">
-        <v>390.11700000000002</v>
+        <v>218.37700000000001</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2.7930000000000001</v>
+        <v>2.3039999999999998</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>39992</v>
       </c>
       <c r="S7">
-        <v>1655</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>398.327</v>
+        <v>-7.8090000000000002</v>
       </c>
       <c r="U7">
-        <v>74.783000000000001</v>
+        <v>51.819000000000003</v>
       </c>
       <c r="V7">
-        <v>48.518000000000001</v>
+        <v>14.321999999999999</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>15.871</v>
+        <v>-7.4480000000000004</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>-60.125</v>
+        <v>-4.9279999999999999</v>
       </c>
       <c r="AA7">
-        <v>14.173</v>
+        <v>4.5759999999999996</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>40086</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>13.95</v>
+        <v>7.8890000000000002</v>
       </c>
       <c r="D8">
-        <v>128.96199999999999</v>
+        <v>65.864000000000004</v>
       </c>
       <c r="E8">
-        <v>95.350999999999999</v>
+        <v>44.11</v>
       </c>
       <c r="F8">
-        <v>91.834999999999994</v>
+        <v>48.430999999999997</v>
       </c>
       <c r="G8">
-        <v>544.51099999999997</v>
+        <v>213.85499999999999</v>
       </c>
       <c r="H8">
-        <v>851.245</v>
+        <v>230.47800000000001</v>
       </c>
       <c r="I8">
-        <v>24.100999999999999</v>
+        <v>8.3510000000000009</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1270,75 +1303,75 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>294.97699999999998</v>
+        <v>168.333</v>
       </c>
       <c r="O8">
-        <v>424.601</v>
+        <v>226.59</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>6.4429999999999996</v>
+        <v>22.414000000000001</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>40086</v>
       </c>
       <c r="S8">
-        <v>1762</v>
+        <v>1196</v>
       </c>
       <c r="T8">
-        <v>426.64400000000001</v>
+        <v>3.8879999999999999</v>
       </c>
       <c r="U8">
-        <v>81.225999999999999</v>
+        <v>74.233000000000004</v>
       </c>
       <c r="V8">
-        <v>44.284999999999997</v>
+        <v>15.863</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
-        <v>6.9370000000000003</v>
+        <v>1.0249999999999999</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>-41.402999999999999</v>
+        <v>5.992</v>
       </c>
       <c r="AA8">
-        <v>13.95</v>
+        <v>7.8890000000000002</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>40178</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>17.206</v>
+        <v>43.94</v>
       </c>
       <c r="D9">
-        <v>136.268</v>
+        <v>70.712000000000003</v>
       </c>
       <c r="E9">
-        <v>89.843000000000004</v>
+        <v>54.551000000000002</v>
       </c>
       <c r="F9">
-        <v>98.46</v>
+        <v>52.19</v>
       </c>
       <c r="G9">
-        <v>514.65200000000004</v>
+        <v>342.21699999999998</v>
       </c>
       <c r="H9">
-        <v>913.26800000000003</v>
+        <v>387.21300000000002</v>
       </c>
       <c r="I9">
-        <v>23.16</v>
+        <v>10.987</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1353,75 +1386,75 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>298.69400000000002</v>
+        <v>180.565</v>
       </c>
       <c r="O9">
-        <v>434.79899999999998</v>
+        <v>244.761</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>-5.76</v>
+        <v>138.22499999999999</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>40178</v>
       </c>
       <c r="S9">
-        <v>1854</v>
+        <v>1223</v>
       </c>
       <c r="T9">
-        <v>478.46899999999999</v>
+        <v>142.452</v>
       </c>
       <c r="U9">
-        <v>75.465999999999994</v>
+        <v>212.458</v>
       </c>
       <c r="V9">
-        <v>40.770000000000003</v>
+        <v>16.215</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>22.809000000000001</v>
+        <v>91.790999999999997</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>-52.918999999999997</v>
+        <v>30.274000000000001</v>
       </c>
       <c r="AA9">
-        <v>17.206</v>
+        <v>43.94</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>40268</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>21.507000000000001</v>
+        <v>4.218</v>
       </c>
       <c r="D10">
-        <v>151.16200000000001</v>
+        <v>69.795000000000002</v>
       </c>
       <c r="E10">
-        <v>107.642</v>
+        <v>51.314999999999998</v>
       </c>
       <c r="F10">
-        <v>109.72</v>
+        <v>50.42</v>
       </c>
       <c r="G10">
-        <v>569.274</v>
+        <v>326.553</v>
       </c>
       <c r="H10">
-        <v>975.49699999999996</v>
+        <v>404.209</v>
       </c>
       <c r="I10">
-        <v>20.815999999999999</v>
+        <v>10.186</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1436,75 +1469,75 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>319.30399999999997</v>
+        <v>183.87</v>
       </c>
       <c r="O10">
-        <v>464.56299999999999</v>
+        <v>253.10300000000001</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>47.509</v>
+        <v>-38.203000000000003</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>40268</v>
       </c>
       <c r="S10">
-        <v>1954</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>510.93400000000003</v>
+        <v>151.10599999999999</v>
       </c>
       <c r="U10">
-        <v>122.97499999999999</v>
+        <v>174.255</v>
       </c>
       <c r="V10">
-        <v>50.292999999999999</v>
+        <v>21.815999999999999</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>4.5389999999999997</v>
+        <v>1.3089999999999999</v>
       </c>
       <c r="Y10">
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>-4.9320000000000004</v>
+        <v>-59.957999999999998</v>
       </c>
       <c r="AA10">
-        <v>21.507000000000001</v>
+        <v>4.218</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>40359</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>12.249000000000001</v>
+        <v>6.8689999999999998</v>
       </c>
       <c r="D11">
-        <v>135.82</v>
+        <v>76.331000000000003</v>
       </c>
       <c r="E11">
-        <v>102.35899999999999</v>
+        <v>59.805999999999997</v>
       </c>
       <c r="F11">
-        <v>96.691999999999993</v>
+        <v>56.165999999999997</v>
       </c>
       <c r="G11">
-        <v>613.66</v>
+        <v>345.40699999999998</v>
       </c>
       <c r="H11">
-        <v>1032.729</v>
+        <v>447.59699999999998</v>
       </c>
       <c r="I11">
-        <v>26.369</v>
+        <v>12.638999999999999</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1519,75 +1552,75 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>331.72800000000001</v>
+        <v>197.12200000000001</v>
       </c>
       <c r="O11">
-        <v>485.02</v>
+        <v>271.24299999999999</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>-25.591000000000001</v>
+        <v>-57.82</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>40359</v>
       </c>
       <c r="S11">
-        <v>2077</v>
+        <v>0</v>
       </c>
       <c r="T11">
-        <v>547.70899999999995</v>
+        <v>176.35400000000001</v>
       </c>
       <c r="U11">
-        <v>97.384</v>
+        <v>116.435</v>
       </c>
       <c r="V11">
-        <v>38.110999999999997</v>
+        <v>17.95</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>15.917</v>
+        <v>14.012</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>-71.665000000000006</v>
+        <v>-87.671999999999997</v>
       </c>
       <c r="AA11">
-        <v>12.249000000000001</v>
+        <v>6.8689999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>40451</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>8.9789999999999992</v>
+        <v>14.016999999999999</v>
       </c>
       <c r="D12">
-        <v>147.428</v>
+        <v>84.971000000000004</v>
       </c>
       <c r="E12">
-        <v>108.907</v>
+        <v>59.561999999999998</v>
       </c>
       <c r="F12">
-        <v>103.72</v>
+        <v>63.527999999999999</v>
       </c>
       <c r="G12">
-        <v>672.4</v>
+        <v>382.60500000000002</v>
       </c>
       <c r="H12">
-        <v>1085.7460000000001</v>
+        <v>488.447</v>
       </c>
       <c r="I12">
-        <v>35.963999999999999</v>
+        <v>9.766</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -1602,75 +1635,75 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>360.48099999999999</v>
+        <v>202.232</v>
       </c>
       <c r="O12">
-        <v>518.56100000000004</v>
+        <v>281.99599999999998</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>26.084</v>
+        <v>-39.295999999999999</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>40451</v>
       </c>
       <c r="S12">
-        <v>2182</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>567.18499999999995</v>
+        <v>206.45099999999999</v>
       </c>
       <c r="U12">
-        <v>123.468</v>
+        <v>77.138999999999996</v>
       </c>
       <c r="V12">
-        <v>37.220999999999997</v>
+        <v>32.192999999999998</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12">
-        <v>1.5669999999999999</v>
+        <v>11.89</v>
       </c>
       <c r="Y12">
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>-10.295</v>
+        <v>-84.268000000000001</v>
       </c>
       <c r="AA12">
-        <v>8.9789999999999992</v>
+        <v>14.016999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>40543</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>11.029</v>
+        <v>16.140999999999998</v>
       </c>
       <c r="D13">
-        <v>154.69900000000001</v>
+        <v>93.599000000000004</v>
       </c>
       <c r="E13">
-        <v>107.80200000000001</v>
+        <v>72.335999999999999</v>
       </c>
       <c r="F13">
-        <v>110.76900000000001</v>
+        <v>69.376000000000005</v>
       </c>
       <c r="G13">
-        <v>705.96699999999998</v>
+        <v>420.15800000000002</v>
       </c>
       <c r="H13">
-        <v>1128.1420000000001</v>
+        <v>545.42200000000003</v>
       </c>
       <c r="I13">
-        <v>33.256999999999998</v>
+        <v>12.760999999999999</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -1685,75 +1718,75 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>367.32600000000002</v>
+        <v>218.38200000000001</v>
       </c>
       <c r="O13">
-        <v>528.18899999999996</v>
+        <v>312.96800000000002</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>21.077999999999999</v>
+        <v>-10.28</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>40543</v>
       </c>
       <c r="S13">
-        <v>2238</v>
+        <v>1336</v>
       </c>
       <c r="T13">
-        <v>599.95299999999997</v>
+        <v>232.45400000000001</v>
       </c>
       <c r="U13">
-        <v>144.54599999999999</v>
+        <v>66.858999999999995</v>
       </c>
       <c r="V13">
-        <v>25.384</v>
+        <v>31.423999999999999</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
-        <v>8.5239999999999991</v>
+        <v>6.8079999999999998</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>-7.8239999999999998</v>
+        <v>-48.097999999999999</v>
       </c>
       <c r="AA13">
-        <v>11.029</v>
+        <v>16.140999999999998</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>40633</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>12.016</v>
+        <v>13.587</v>
       </c>
       <c r="D14">
-        <v>177.35</v>
+        <v>93.266000000000005</v>
       </c>
       <c r="E14">
-        <v>130.471</v>
+        <v>71.325999999999993</v>
       </c>
       <c r="F14">
-        <v>123.94199999999999</v>
+        <v>69.849999999999994</v>
       </c>
       <c r="G14">
-        <v>735.54600000000005</v>
+        <v>404.14100000000002</v>
       </c>
       <c r="H14">
-        <v>1168.4639999999999</v>
+        <v>587.75300000000004</v>
       </c>
       <c r="I14">
-        <v>35.598999999999997</v>
+        <v>8.6959999999999997</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1768,75 +1801,75 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>413.06099999999998</v>
+        <v>235.92400000000001</v>
       </c>
       <c r="O14">
-        <v>582.70399999999995</v>
+        <v>329.661</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>-28.672999999999998</v>
+        <v>2.1219999999999999</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>40633</v>
       </c>
       <c r="S14">
-        <v>2308</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>585.76</v>
+        <v>258.09199999999998</v>
       </c>
       <c r="U14">
-        <v>115.873</v>
+        <v>68.980999999999995</v>
       </c>
       <c r="V14">
-        <v>46.667999999999999</v>
+        <v>40.176000000000002</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
-        <v>-32.430999999999997</v>
+        <v>8.0749999999999993</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>-35.438000000000002</v>
+        <v>-46.24</v>
       </c>
       <c r="AA14">
-        <v>12.016</v>
+        <v>13.587</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>40724</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>8.3930000000000007</v>
+        <v>14.494</v>
       </c>
       <c r="D15">
-        <v>168.94900000000001</v>
+        <v>103.023</v>
       </c>
       <c r="E15">
-        <v>111.489</v>
+        <v>72.212000000000003</v>
       </c>
       <c r="F15">
-        <v>118.206</v>
+        <v>76.465000000000003</v>
       </c>
       <c r="G15">
-        <v>781.46</v>
+        <v>454.41199999999998</v>
       </c>
       <c r="H15">
-        <v>1200.0309999999999</v>
+        <v>635.23500000000001</v>
       </c>
       <c r="I15">
-        <v>27.603000000000002</v>
+        <v>13.207000000000001</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1851,75 +1884,75 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>394.86599999999999</v>
+        <v>246.28899999999999</v>
       </c>
       <c r="O15">
-        <v>589.93700000000001</v>
+        <v>347.71499999999997</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>57.094999999999999</v>
+        <v>9.0380000000000003</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>40724</v>
       </c>
       <c r="S15">
-        <v>2389</v>
+        <v>1475</v>
       </c>
       <c r="T15">
-        <v>610.09400000000005</v>
+        <v>287.52</v>
       </c>
       <c r="U15">
-        <v>172.96799999999999</v>
+        <v>78.019000000000005</v>
       </c>
       <c r="V15">
-        <v>60.902000000000001</v>
+        <v>34.067999999999998</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>-0.88800000000000001</v>
+        <v>7.6349999999999998</v>
       </c>
       <c r="Y15">
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>8.9710000000000001</v>
+        <v>-29.574000000000002</v>
       </c>
       <c r="AA15">
-        <v>8.3930000000000007</v>
+        <v>14.494</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>40816</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>6.0810000000000004</v>
+        <v>17.917000000000002</v>
       </c>
       <c r="D16">
-        <v>184.09800000000001</v>
+        <v>116.426</v>
       </c>
       <c r="E16">
-        <v>127.825</v>
+        <v>75.834999999999994</v>
       </c>
       <c r="F16">
-        <v>126.34099999999999</v>
+        <v>85.287000000000006</v>
       </c>
       <c r="G16">
-        <v>806.94899999999996</v>
+        <v>503.92599999999999</v>
       </c>
       <c r="H16">
-        <v>1265.1120000000001</v>
+        <v>670.98699999999997</v>
       </c>
       <c r="I16">
-        <v>35.847999999999999</v>
+        <v>15.342000000000001</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1934,75 +1967,75 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>426.08800000000002</v>
+        <v>251.667</v>
       </c>
       <c r="O16">
-        <v>639.89300000000003</v>
+        <v>354.12</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>30.978999999999999</v>
+        <v>-11.388999999999999</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>40816</v>
       </c>
       <c r="S16">
-        <v>2532</v>
+        <v>1527</v>
       </c>
       <c r="T16">
-        <v>625.21900000000005</v>
+        <v>316.86700000000002</v>
       </c>
       <c r="U16">
-        <v>203.947</v>
+        <v>66.63</v>
       </c>
       <c r="V16">
-        <v>43.798000000000002</v>
+        <v>36.039000000000001</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16">
-        <v>-6.8390000000000004</v>
+        <v>7.5720000000000001</v>
       </c>
       <c r="Y16">
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>3.7690000000000001</v>
+        <v>-51.615000000000002</v>
       </c>
       <c r="AA16">
-        <v>6.0810000000000004</v>
+        <v>17.917000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>40908</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>4.056</v>
+        <v>16.494</v>
       </c>
       <c r="D17">
-        <v>193.34800000000001</v>
+        <v>120.861</v>
       </c>
       <c r="E17">
-        <v>116.38200000000001</v>
+        <v>95.522000000000006</v>
       </c>
       <c r="F17">
-        <v>136.46299999999999</v>
+        <v>88.376000000000005</v>
       </c>
       <c r="G17">
-        <v>896.44</v>
+        <v>523.57000000000005</v>
       </c>
       <c r="H17">
-        <v>1312.6010000000001</v>
+        <v>734.74699999999996</v>
       </c>
       <c r="I17">
-        <v>36.520000000000003</v>
+        <v>19.768000000000001</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -2017,75 +2050,75 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>434.49599999999998</v>
+        <v>266.86399999999998</v>
       </c>
       <c r="O17">
-        <v>663.375</v>
+        <v>376.39299999999997</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>54.149000000000001</v>
+        <v>5.36</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>40908</v>
       </c>
       <c r="S17">
-        <v>2721</v>
+        <v>1583</v>
       </c>
       <c r="T17">
-        <v>649.226</v>
+        <v>358.35399999999998</v>
       </c>
       <c r="U17">
-        <v>258.096</v>
+        <v>71.989999999999995</v>
       </c>
       <c r="V17">
-        <v>56.518000000000001</v>
+        <v>22.559000000000001</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17">
-        <v>5.84</v>
+        <v>16.515000000000001</v>
       </c>
       <c r="Y17">
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>-2.4289999999999998</v>
+        <v>-33.15</v>
       </c>
       <c r="AA17">
-        <v>4.056</v>
+        <v>16.494</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>40999</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>6.8129999999999997</v>
+        <v>14.173</v>
       </c>
       <c r="D18">
-        <v>223.96899999999999</v>
+        <v>117.247</v>
       </c>
       <c r="E18">
-        <v>184.74100000000001</v>
+        <v>84.759</v>
       </c>
       <c r="F18">
-        <v>160.749</v>
+        <v>86.203999999999994</v>
       </c>
       <c r="G18">
-        <v>1005.381</v>
+        <v>551.5</v>
       </c>
       <c r="H18">
-        <v>1424.7739999999999</v>
+        <v>788.44399999999996</v>
       </c>
       <c r="I18">
-        <v>49.947000000000003</v>
+        <v>13.763999999999999</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -2100,75 +2133,75 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>496.45600000000002</v>
+        <v>270.96100000000001</v>
       </c>
       <c r="O18">
-        <v>748.80799999999999</v>
+        <v>390.11700000000002</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>25.158000000000001</v>
+        <v>2.7930000000000001</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>40999</v>
       </c>
       <c r="S18">
-        <v>2854</v>
+        <v>1655</v>
       </c>
       <c r="T18">
-        <v>675.96600000000001</v>
+        <v>398.327</v>
       </c>
       <c r="U18">
-        <v>283.25400000000002</v>
+        <v>74.783000000000001</v>
       </c>
       <c r="V18">
-        <v>35.363999999999997</v>
+        <v>48.518000000000001</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
       <c r="X18">
-        <v>2.6360000000000001</v>
+        <v>15.871</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>-7.4470000000000001</v>
+        <v>-60.125</v>
       </c>
       <c r="AA18">
-        <v>6.8129999999999997</v>
+        <v>14.173</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>41090</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>1.56</v>
+        <v>13.95</v>
       </c>
       <c r="D19">
-        <v>212.886</v>
+        <v>128.96199999999999</v>
       </c>
       <c r="E19">
-        <v>161.85400000000001</v>
+        <v>95.350999999999999</v>
       </c>
       <c r="F19">
-        <v>149.28399999999999</v>
+        <v>91.834999999999994</v>
       </c>
       <c r="G19">
-        <v>1111.8030000000001</v>
+        <v>544.51099999999997</v>
       </c>
       <c r="H19">
-        <v>1498.3030000000001</v>
+        <v>851.245</v>
       </c>
       <c r="I19">
-        <v>40.164000000000001</v>
+        <v>24.100999999999999</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -2183,75 +2216,75 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>518.63300000000004</v>
+        <v>294.97699999999998</v>
       </c>
       <c r="O19">
-        <v>778.55600000000004</v>
+        <v>424.601</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>103.098</v>
+        <v>6.4429999999999996</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>41090</v>
       </c>
       <c r="S19">
-        <v>3076</v>
+        <v>1762</v>
       </c>
       <c r="T19">
-        <v>719.74699999999996</v>
+        <v>426.64400000000001</v>
       </c>
       <c r="U19">
-        <v>386.35199999999998</v>
+        <v>81.225999999999999</v>
       </c>
       <c r="V19">
-        <v>64.619</v>
+        <v>44.284999999999997</v>
       </c>
       <c r="W19">
         <v>0</v>
       </c>
       <c r="X19">
-        <v>22.355</v>
+        <v>6.9370000000000003</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>21.050999999999998</v>
+        <v>-41.402999999999999</v>
       </c>
       <c r="AA19">
-        <v>1.56</v>
+        <v>13.95</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>41182</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>0.79200000000000004</v>
+        <v>17.206</v>
       </c>
       <c r="D20">
-        <v>239.785</v>
+        <v>136.268</v>
       </c>
       <c r="E20">
-        <v>176.84899999999999</v>
+        <v>89.843000000000004</v>
       </c>
       <c r="F20">
-        <v>170.28700000000001</v>
+        <v>98.46</v>
       </c>
       <c r="G20">
-        <v>1195.51</v>
+        <v>514.65200000000004</v>
       </c>
       <c r="H20">
-        <v>1604.876</v>
+        <v>913.26800000000003</v>
       </c>
       <c r="I20">
-        <v>42.335999999999999</v>
+        <v>23.16</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -2266,75 +2299,75 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>565.29899999999998</v>
+        <v>298.69400000000002</v>
       </c>
       <c r="O20">
-        <v>854.04899999999998</v>
+        <v>434.79899999999998</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>95.040999999999997</v>
+        <v>-5.76</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>41182</v>
       </c>
       <c r="S20">
-        <v>3336</v>
+        <v>1854</v>
       </c>
       <c r="T20">
-        <v>750.827</v>
+        <v>478.46899999999999</v>
       </c>
       <c r="U20">
-        <v>481.39299999999997</v>
+        <v>75.465999999999994</v>
       </c>
       <c r="V20">
-        <v>84.305000000000007</v>
+        <v>40.770000000000003</v>
       </c>
       <c r="W20">
         <v>0</v>
       </c>
       <c r="X20">
-        <v>8.93</v>
+        <v>22.809000000000001</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>12.567</v>
+        <v>-52.918999999999997</v>
       </c>
       <c r="AA20">
-        <v>0.79200000000000004</v>
+        <v>17.206</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>41274</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>8.1690000000000005</v>
+        <v>21.507000000000001</v>
       </c>
       <c r="D21">
-        <v>260.06799999999998</v>
+        <v>151.16200000000001</v>
       </c>
       <c r="E21">
-        <v>174.11099999999999</v>
+        <v>107.642</v>
       </c>
       <c r="F21">
-        <v>188.36699999999999</v>
+        <v>109.72</v>
       </c>
       <c r="G21">
-        <v>1251.74</v>
+        <v>569.274</v>
       </c>
       <c r="H21">
-        <v>1707.173</v>
+        <v>975.49699999999996</v>
       </c>
       <c r="I21">
-        <v>48.792999999999999</v>
+        <v>20.815999999999999</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -2349,75 +2382,75 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>603.13400000000001</v>
+        <v>319.30399999999997</v>
       </c>
       <c r="O21">
-        <v>911.78700000000003</v>
+        <v>464.56299999999999</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>59.319000000000003</v>
+        <v>47.509</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>41274</v>
       </c>
       <c r="S21">
-        <v>3889</v>
+        <v>1954</v>
       </c>
       <c r="T21">
-        <v>795.38599999999997</v>
+        <v>510.93400000000003</v>
       </c>
       <c r="U21">
-        <v>540.71199999999999</v>
+        <v>122.97499999999999</v>
       </c>
       <c r="V21">
-        <v>65.064999999999998</v>
+        <v>50.292999999999999</v>
       </c>
       <c r="W21">
         <v>0</v>
       </c>
       <c r="X21">
-        <v>9.2690000000000001</v>
+        <v>4.5389999999999997</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>36.335000000000001</v>
+        <v>-4.9320000000000004</v>
       </c>
       <c r="AA21">
-        <v>8.1690000000000005</v>
+        <v>21.507000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>41364</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>-2.5339999999999998</v>
+        <v>12.249000000000001</v>
       </c>
       <c r="D22">
-        <v>296.529</v>
+        <v>135.82</v>
       </c>
       <c r="E22">
-        <v>259.56299999999999</v>
+        <v>102.35899999999999</v>
       </c>
       <c r="F22">
-        <v>214.553</v>
+        <v>96.691999999999993</v>
       </c>
       <c r="G22">
-        <v>1270.5429999999999</v>
+        <v>613.66</v>
       </c>
       <c r="H22">
-        <v>1790.51</v>
+        <v>1032.729</v>
       </c>
       <c r="I22">
-        <v>61.5</v>
+        <v>26.369</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -2432,75 +2465,75 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>678.67</v>
+        <v>331.72800000000001</v>
       </c>
       <c r="O22">
-        <v>1035.133</v>
+        <v>485.02</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>2.5649999999999999</v>
+        <v>-25.591000000000001</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>41364</v>
       </c>
       <c r="S22">
-        <v>4018</v>
+        <v>2077</v>
       </c>
       <c r="T22">
-        <v>755.37699999999995</v>
+        <v>547.70899999999995</v>
       </c>
       <c r="U22">
-        <v>543.27700000000004</v>
+        <v>97.384</v>
       </c>
       <c r="V22">
-        <v>68.558000000000007</v>
+        <v>38.110999999999997</v>
       </c>
       <c r="W22">
         <v>0</v>
       </c>
       <c r="X22">
-        <v>-62.110999999999997</v>
+        <v>15.917</v>
       </c>
       <c r="Y22">
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>4.4630000000000001</v>
+        <v>-71.665000000000006</v>
       </c>
       <c r="AA22">
-        <v>-2.5339999999999998</v>
+        <v>12.249000000000001</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>41455</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>2.1179999999999999</v>
+        <v>8.9789999999999992</v>
       </c>
       <c r="D23">
-        <v>284.57600000000002</v>
+        <v>147.428</v>
       </c>
       <c r="E23">
-        <v>220.13499999999999</v>
+        <v>108.907</v>
       </c>
       <c r="F23">
-        <v>206.93199999999999</v>
+        <v>103.72</v>
       </c>
       <c r="G23">
-        <v>1285.701</v>
+        <v>672.4</v>
       </c>
       <c r="H23">
-        <v>1811.521</v>
+        <v>1085.7460000000001</v>
       </c>
       <c r="I23">
-        <v>47.954999999999998</v>
+        <v>35.963999999999999</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -2515,75 +2548,75 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>687.34199999999998</v>
+        <v>360.48099999999999</v>
       </c>
       <c r="O23">
-        <v>1069.1179999999999</v>
+        <v>518.56100000000004</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>24.731000000000002</v>
+        <v>26.084</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>41455</v>
       </c>
       <c r="S23">
-        <v>4239</v>
+        <v>2182</v>
       </c>
       <c r="T23">
-        <v>742.40300000000002</v>
+        <v>567.18499999999995</v>
       </c>
       <c r="U23">
-        <v>568.00800000000004</v>
+        <v>123.468</v>
       </c>
       <c r="V23">
-        <v>100.59099999999999</v>
+        <v>37.220999999999997</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
       <c r="X23">
-        <v>-41.655999999999999</v>
+        <v>1.5669999999999999</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>-4.2480000000000002</v>
+        <v>-10.295</v>
       </c>
       <c r="AA23">
-        <v>2.1179999999999999</v>
+        <v>8.9789999999999992</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>41547</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>-1.3879999999999999</v>
+        <v>11.029</v>
       </c>
       <c r="D24">
-        <v>311.39100000000002</v>
+        <v>154.69900000000001</v>
       </c>
       <c r="E24">
-        <v>254.37899999999999</v>
+        <v>107.80200000000001</v>
       </c>
       <c r="F24">
-        <v>226.88800000000001</v>
+        <v>110.76900000000001</v>
       </c>
       <c r="G24">
-        <v>1353.884</v>
+        <v>705.96699999999998</v>
       </c>
       <c r="H24">
-        <v>1960.1780000000001</v>
+        <v>1128.1420000000001</v>
       </c>
       <c r="I24">
-        <v>56.92</v>
+        <v>33.256999999999998</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -2598,75 +2631,75 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>731.96400000000006</v>
+        <v>367.32600000000002</v>
       </c>
       <c r="O24">
-        <v>1155.5519999999999</v>
+        <v>528.18899999999996</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>28.372</v>
+        <v>21.077999999999999</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>41547</v>
       </c>
       <c r="S24">
-        <v>4562</v>
+        <v>2238</v>
       </c>
       <c r="T24">
-        <v>804.62599999999998</v>
+        <v>599.95299999999997</v>
       </c>
       <c r="U24">
-        <v>596.38</v>
+        <v>144.54599999999999</v>
       </c>
       <c r="V24">
-        <v>67.941000000000003</v>
+        <v>25.384</v>
       </c>
       <c r="W24">
         <v>0</v>
       </c>
       <c r="X24">
-        <v>-4.3559999999999999</v>
+        <v>8.5239999999999991</v>
       </c>
       <c r="Y24">
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>-0.11</v>
+        <v>-7.8239999999999998</v>
       </c>
       <c r="AA24">
-        <v>-1.3879999999999999</v>
+        <v>11.029</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>41639</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>6.2910000000000004</v>
+        <v>12.016</v>
       </c>
       <c r="D25">
-        <v>316.64600000000002</v>
+        <v>177.35</v>
       </c>
       <c r="E25">
-        <v>238.988</v>
+        <v>130.471</v>
       </c>
       <c r="F25">
-        <v>231.84700000000001</v>
+        <v>123.94199999999999</v>
       </c>
       <c r="G25">
-        <v>1394.873</v>
+        <v>735.54600000000005</v>
       </c>
       <c r="H25">
-        <v>2010.16</v>
+        <v>1168.4639999999999</v>
       </c>
       <c r="I25">
-        <v>57.53</v>
+        <v>35.598999999999997</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -2681,75 +2714,75 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>750.36</v>
+        <v>413.06099999999998</v>
       </c>
       <c r="O25">
-        <v>1187.0719999999999</v>
+        <v>582.70399999999995</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>51.133000000000003</v>
+        <v>-28.672999999999998</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>41639</v>
       </c>
       <c r="S25">
-        <v>4619</v>
+        <v>2308</v>
       </c>
       <c r="T25">
-        <v>823.08799999999997</v>
+        <v>585.76</v>
       </c>
       <c r="U25">
-        <v>647.51300000000003</v>
+        <v>115.873</v>
       </c>
       <c r="V25">
-        <v>76.138999999999996</v>
+        <v>46.667999999999999</v>
       </c>
       <c r="W25">
         <v>0</v>
       </c>
       <c r="X25">
-        <v>-18.207999999999998</v>
+        <v>-32.430999999999997</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>0.54900000000000004</v>
+        <v>-35.438000000000002</v>
       </c>
       <c r="AA25">
-        <v>6.2910000000000004</v>
+        <v>12.016</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>41729</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>25.166</v>
+        <v>8.3930000000000007</v>
       </c>
       <c r="D26">
-        <v>362.83</v>
+        <v>168.94900000000001</v>
       </c>
       <c r="E26">
-        <v>312.99799999999999</v>
+        <v>111.489</v>
       </c>
       <c r="F26">
-        <v>271.93900000000002</v>
+        <v>118.206</v>
       </c>
       <c r="G26">
-        <v>1538.7159999999999</v>
+        <v>781.46</v>
       </c>
       <c r="H26">
-        <v>2139.9409999999998</v>
+        <v>1200.0309999999999</v>
       </c>
       <c r="I26">
-        <v>56.731999999999999</v>
+        <v>27.603000000000002</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -2764,75 +2797,75 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>829.44</v>
+        <v>394.86599999999999</v>
       </c>
       <c r="O26">
-        <v>1302.26</v>
+        <v>589.93700000000001</v>
       </c>
       <c r="P26">
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>61.49</v>
+        <v>57.094999999999999</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>41729</v>
       </c>
       <c r="S26">
-        <v>4665</v>
+        <v>2389</v>
       </c>
       <c r="T26">
-        <v>837.68100000000004</v>
+        <v>610.09400000000005</v>
       </c>
       <c r="U26">
-        <v>709.00300000000004</v>
+        <v>172.96799999999999</v>
       </c>
       <c r="V26">
-        <v>101.03700000000001</v>
+        <v>60.902000000000001</v>
       </c>
       <c r="W26">
         <v>0</v>
       </c>
       <c r="X26">
-        <v>-41.639000000000003</v>
+        <v>-0.88800000000000001</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>18.954999999999998</v>
+        <v>8.9710000000000001</v>
       </c>
       <c r="AA26">
-        <v>25.166</v>
+        <v>8.3930000000000007</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>41820</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>10.7</v>
+        <v>6.0810000000000004</v>
       </c>
       <c r="D27">
-        <v>340.6</v>
+        <v>184.09800000000001</v>
       </c>
       <c r="E27">
-        <v>270.11099999999999</v>
+        <v>127.825</v>
       </c>
       <c r="F27">
-        <v>250</v>
+        <v>126.34099999999999</v>
       </c>
       <c r="G27">
-        <v>1616.0820000000001</v>
+        <v>806.94899999999996</v>
       </c>
       <c r="H27">
-        <v>2267.3829999999998</v>
+        <v>1265.1120000000001</v>
       </c>
       <c r="I27">
-        <v>48.689</v>
+        <v>35.847999999999999</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -2847,75 +2880,75 @@
         <v>0</v>
       </c>
       <c r="N27">
-        <v>856.58500000000004</v>
+        <v>426.08800000000002</v>
       </c>
       <c r="O27">
-        <v>1369.134</v>
+        <v>639.89300000000003</v>
       </c>
       <c r="P27">
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>114.2</v>
+        <v>30.978999999999999</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>41820</v>
       </c>
       <c r="S27">
-        <v>4711</v>
+        <v>2532</v>
       </c>
       <c r="T27">
-        <v>898.24900000000002</v>
+        <v>625.21900000000005</v>
       </c>
       <c r="U27">
-        <v>823.24900000000002</v>
+        <v>203.947</v>
       </c>
       <c r="V27">
-        <v>129.69999999999999</v>
+        <v>43.798000000000002</v>
       </c>
       <c r="W27">
         <v>0</v>
       </c>
       <c r="X27">
-        <v>15.8</v>
+        <v>-6.8390000000000004</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>-17.8</v>
+        <v>3.7690000000000001</v>
       </c>
       <c r="AA27">
-        <v>10.7</v>
+        <v>6.0810000000000004</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>41912</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>23</v>
+        <v>4.056</v>
       </c>
       <c r="D28">
-        <v>363.5</v>
+        <v>193.34800000000001</v>
       </c>
       <c r="E28">
-        <v>274.476</v>
+        <v>116.38200000000001</v>
       </c>
       <c r="F28">
-        <v>267.8</v>
+        <v>136.46299999999999</v>
       </c>
       <c r="G28">
-        <v>1604.634</v>
+        <v>896.44</v>
       </c>
       <c r="H28">
-        <v>2360.6909999999998</v>
+        <v>1312.6010000000001</v>
       </c>
       <c r="I28">
-        <v>42.170999999999999</v>
+        <v>36.520000000000003</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -2930,75 +2963,75 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>885.51900000000001</v>
+        <v>434.49599999999998</v>
       </c>
       <c r="O28">
-        <v>1438.5519999999999</v>
+        <v>663.375</v>
       </c>
       <c r="P28">
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>29.9</v>
+        <v>54.149000000000001</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>41912</v>
       </c>
       <c r="S28">
-        <v>4792</v>
+        <v>2721</v>
       </c>
       <c r="T28">
-        <v>922.13900000000001</v>
+        <v>649.226</v>
       </c>
       <c r="U28">
-        <v>853.13699999999994</v>
+        <v>258.096</v>
       </c>
       <c r="V28">
-        <v>144.80000000000001</v>
+        <v>56.518000000000001</v>
       </c>
       <c r="W28">
         <v>0</v>
       </c>
       <c r="X28">
-        <v>-33</v>
+        <v>5.84</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>4.5</v>
+        <v>-2.4289999999999998</v>
       </c>
       <c r="AA28">
-        <v>23</v>
+        <v>4.056</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>42004</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>26.7</v>
+        <v>6.8129999999999997</v>
       </c>
       <c r="D29">
-        <v>374.2</v>
+        <v>223.96899999999999</v>
       </c>
       <c r="E29">
-        <v>257.99900000000002</v>
+        <v>184.74100000000001</v>
       </c>
       <c r="F29">
-        <v>280.60000000000002</v>
+        <v>160.749</v>
       </c>
       <c r="G29">
-        <v>1650.6510000000001</v>
+        <v>1005.381</v>
       </c>
       <c r="H29">
-        <v>2395.279</v>
+        <v>1424.7739999999999</v>
       </c>
       <c r="I29">
-        <v>44.542999999999999</v>
+        <v>49.947000000000003</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -3013,75 +3046,75 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>910.63900000000001</v>
+        <v>496.45600000000002</v>
       </c>
       <c r="O29">
-        <v>1493.0540000000001</v>
+        <v>748.80799999999999</v>
       </c>
       <c r="P29">
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>52.7</v>
+        <v>25.158000000000001</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>42004</v>
       </c>
       <c r="S29">
-        <v>4903</v>
+        <v>2854</v>
       </c>
       <c r="T29">
-        <v>902.22500000000002</v>
+        <v>675.96600000000001</v>
       </c>
       <c r="U29">
-        <v>905.79399999999998</v>
+        <v>283.25400000000002</v>
       </c>
       <c r="V29">
-        <v>162.4</v>
+        <v>35.363999999999997</v>
       </c>
       <c r="W29">
         <v>0</v>
       </c>
       <c r="X29">
-        <v>-80.8</v>
+        <v>2.6360000000000001</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>-7.2</v>
+        <v>-7.4470000000000001</v>
       </c>
       <c r="AA29">
-        <v>26.7</v>
+        <v>6.8129999999999997</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>42094</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>-29</v>
+        <v>1.56</v>
       </c>
       <c r="D30">
-        <v>416.6</v>
+        <v>212.886</v>
       </c>
       <c r="E30">
-        <v>348.2</v>
+        <v>161.85400000000001</v>
       </c>
       <c r="F30">
-        <v>311.2</v>
+        <v>149.28399999999999</v>
       </c>
       <c r="G30">
-        <v>1716.8</v>
+        <v>1111.8030000000001</v>
       </c>
       <c r="H30">
-        <v>2257.9</v>
+        <v>1498.3030000000001</v>
       </c>
       <c r="I30">
-        <v>70</v>
+        <v>40.164000000000001</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -3096,75 +3129,75 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>1027.2</v>
+        <v>518.63300000000004</v>
       </c>
       <c r="O30">
-        <v>1668.5</v>
+        <v>778.55600000000004</v>
       </c>
       <c r="P30">
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>-94.8</v>
+        <v>103.098</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>42094</v>
       </c>
       <c r="S30">
-        <v>5066</v>
+        <v>3076</v>
       </c>
       <c r="T30">
-        <v>589.4</v>
+        <v>719.74699999999996</v>
       </c>
       <c r="U30">
-        <v>811</v>
+        <v>386.35199999999998</v>
       </c>
       <c r="V30">
-        <v>157.5</v>
+        <v>64.619</v>
       </c>
       <c r="W30">
         <v>0</v>
       </c>
       <c r="X30">
-        <v>-317.60000000000002</v>
+        <v>22.355</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>79</v>
+        <v>21.050999999999998</v>
       </c>
       <c r="AA30">
-        <v>-29</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>42185</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>41.6</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="D31">
-        <v>399</v>
+        <v>239.785</v>
       </c>
       <c r="E31">
-        <v>313.10000000000002</v>
+        <v>176.84899999999999</v>
       </c>
       <c r="F31">
-        <v>301.8</v>
+        <v>170.28700000000001</v>
       </c>
       <c r="G31">
-        <v>1735.8</v>
+        <v>1195.51</v>
       </c>
       <c r="H31">
-        <v>2400.6999999999998</v>
+        <v>1604.876</v>
       </c>
       <c r="I31">
-        <v>55.7</v>
+        <v>42.335999999999999</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -3179,75 +3212,75 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>1029.7</v>
+        <v>565.29899999999998</v>
       </c>
       <c r="O31">
-        <v>1707.2</v>
+        <v>854.04899999999998</v>
       </c>
       <c r="P31">
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>24.6</v>
+        <v>95.040999999999997</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>42185</v>
       </c>
       <c r="S31">
-        <v>5275</v>
+        <v>3336</v>
       </c>
       <c r="T31">
-        <v>693.5</v>
+        <v>750.827</v>
       </c>
       <c r="U31">
-        <v>835.6</v>
+        <v>481.39299999999997</v>
       </c>
       <c r="V31">
-        <v>139.69999999999999</v>
+        <v>84.305000000000007</v>
       </c>
       <c r="W31">
         <v>0</v>
       </c>
       <c r="X31">
-        <v>-89.6</v>
+        <v>8.93</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>-13.9</v>
+        <v>12.567</v>
       </c>
       <c r="AA31">
-        <v>41.6</v>
+        <v>0.79200000000000004</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>42277</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>49.3</v>
+        <v>8.1690000000000005</v>
       </c>
       <c r="D32">
-        <v>441.3</v>
+        <v>260.06799999999998</v>
       </c>
       <c r="E32">
-        <v>333.6</v>
+        <v>174.11099999999999</v>
       </c>
       <c r="F32">
-        <v>328.2</v>
+        <v>188.36699999999999</v>
       </c>
       <c r="G32">
-        <v>1884.8</v>
+        <v>1251.74</v>
       </c>
       <c r="H32">
-        <v>2575.6999999999998</v>
+        <v>1707.173</v>
       </c>
       <c r="I32">
-        <v>63.7</v>
+        <v>48.792999999999999</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -3262,75 +3295,75 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>1085.2</v>
+        <v>603.13400000000001</v>
       </c>
       <c r="O32">
-        <v>1795.5</v>
+        <v>911.78700000000003</v>
       </c>
       <c r="P32">
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>136.5</v>
+        <v>59.319000000000003</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>42277</v>
       </c>
       <c r="S32">
-        <v>5462</v>
+        <v>3889</v>
       </c>
       <c r="T32">
-        <v>780.2</v>
+        <v>795.38599999999997</v>
       </c>
       <c r="U32">
-        <v>972.1</v>
+        <v>540.71199999999999</v>
       </c>
       <c r="V32">
-        <v>142.30000000000001</v>
+        <v>65.064999999999998</v>
       </c>
       <c r="W32">
         <v>0</v>
       </c>
       <c r="X32">
-        <v>-12.8</v>
+        <v>9.2690000000000001</v>
       </c>
       <c r="Y32">
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>24.6</v>
+        <v>36.335000000000001</v>
       </c>
       <c r="AA32">
-        <v>49.3</v>
+        <v>8.1690000000000005</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>42369</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>58.7</v>
+        <v>-2.5339999999999998</v>
       </c>
       <c r="D33">
-        <v>453.9</v>
+        <v>296.529</v>
       </c>
       <c r="E33">
-        <v>324.39999999999998</v>
+        <v>259.56299999999999</v>
       </c>
       <c r="F33">
-        <v>342.3</v>
+        <v>214.553</v>
       </c>
       <c r="G33">
-        <v>2078.1</v>
+        <v>1270.5429999999999</v>
       </c>
       <c r="H33">
-        <v>2763.5</v>
+        <v>1790.51</v>
       </c>
       <c r="I33">
-        <v>66.599999999999994</v>
+        <v>61.5</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -3345,75 +3378,75 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>1111.9000000000001</v>
+        <v>678.67</v>
       </c>
       <c r="O33">
-        <v>1871.9</v>
+        <v>1035.133</v>
       </c>
       <c r="P33">
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>197.2</v>
+        <v>2.5649999999999999</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>42369</v>
       </c>
       <c r="S33">
-        <v>5639</v>
+        <v>4018</v>
       </c>
       <c r="T33">
-        <v>891.6</v>
+        <v>755.37699999999995</v>
       </c>
       <c r="U33">
-        <v>1169.3</v>
+        <v>543.27700000000004</v>
       </c>
       <c r="V33">
-        <v>176.7</v>
+        <v>68.558000000000007</v>
       </c>
       <c r="W33">
         <v>0</v>
       </c>
       <c r="X33">
-        <v>9.4</v>
+        <v>-62.110999999999997</v>
       </c>
       <c r="Y33">
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>29.3</v>
+        <v>4.4630000000000001</v>
       </c>
       <c r="AA33">
-        <v>58.7</v>
+        <v>-2.5339999999999998</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>42460</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>182.6</v>
+        <v>2.1179999999999999</v>
       </c>
       <c r="D34">
-        <v>507</v>
+        <v>284.57600000000002</v>
       </c>
       <c r="E34">
-        <v>444.5</v>
+        <v>220.13499999999999</v>
       </c>
       <c r="F34">
-        <v>378.5</v>
+        <v>206.93199999999999</v>
       </c>
       <c r="G34">
-        <v>2220.9</v>
+        <v>1285.701</v>
       </c>
       <c r="H34">
-        <v>3078</v>
+        <v>1811.521</v>
       </c>
       <c r="I34">
-        <v>86.4</v>
+        <v>47.954999999999998</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -3428,75 +3461,75 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>1256.4000000000001</v>
+        <v>687.34199999999998</v>
       </c>
       <c r="O34">
-        <v>2067.8000000000002</v>
+        <v>1069.1179999999999</v>
       </c>
       <c r="P34">
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>-56.9</v>
+        <v>24.731000000000002</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>42460</v>
       </c>
       <c r="S34">
-        <v>5845</v>
+        <v>4239</v>
       </c>
       <c r="T34">
-        <v>1010.2</v>
+        <v>742.40300000000002</v>
       </c>
       <c r="U34">
-        <v>1112.4000000000001</v>
+        <v>568.00800000000004</v>
       </c>
       <c r="V34">
-        <v>180.2</v>
+        <v>100.59099999999999</v>
       </c>
       <c r="W34">
         <v>0</v>
       </c>
       <c r="X34">
-        <v>-109.6</v>
+        <v>-41.655999999999999</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>-100.2</v>
+        <v>-4.2480000000000002</v>
       </c>
       <c r="AA34">
-        <v>182.6</v>
+        <v>2.1179999999999999</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>42551</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>58.8</v>
+        <v>-1.3879999999999999</v>
       </c>
       <c r="D35">
-        <v>472.6</v>
+        <v>311.39100000000002</v>
       </c>
       <c r="E35">
-        <v>381</v>
+        <v>254.37899999999999</v>
       </c>
       <c r="F35">
-        <v>359.6</v>
+        <v>226.88800000000001</v>
       </c>
       <c r="G35">
-        <v>2313.3000000000002</v>
+        <v>1353.884</v>
       </c>
       <c r="H35">
-        <v>3205.7</v>
+        <v>1960.1780000000001</v>
       </c>
       <c r="I35">
-        <v>69.2</v>
+        <v>56.92</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -3511,75 +3544,75 @@
         <v>0</v>
       </c>
       <c r="N35">
-        <v>1254.3</v>
+        <v>731.96400000000006</v>
       </c>
       <c r="O35">
-        <v>2147.6</v>
+        <v>1155.5519999999999</v>
       </c>
       <c r="P35">
-        <v>39.4</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>104.5</v>
+        <v>28.372</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>42551</v>
       </c>
       <c r="S35">
-        <v>6015</v>
+        <v>4562</v>
       </c>
       <c r="T35">
-        <v>1058.0999999999999</v>
+        <v>804.62599999999998</v>
       </c>
       <c r="U35">
-        <v>1216.9000000000001</v>
+        <v>596.38</v>
       </c>
       <c r="V35">
-        <v>201.3</v>
+        <v>67.941000000000003</v>
       </c>
       <c r="W35">
         <v>0</v>
       </c>
       <c r="X35">
-        <v>-57.8</v>
+        <v>-4.3559999999999999</v>
       </c>
       <c r="Y35">
-        <v>27.5</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>-28.8</v>
+        <v>-0.11</v>
       </c>
       <c r="AA35">
-        <v>58.8</v>
+        <v>-1.3879999999999999</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>42643</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>72.7</v>
+        <v>6.2910000000000004</v>
       </c>
       <c r="D36">
-        <v>524.20000000000005</v>
+        <v>316.64600000000002</v>
       </c>
       <c r="E36">
-        <v>403.1</v>
+        <v>238.988</v>
       </c>
       <c r="F36">
-        <v>395.9</v>
+        <v>231.84700000000001</v>
       </c>
       <c r="G36">
-        <v>2360.6999999999998</v>
+        <v>1394.873</v>
       </c>
       <c r="H36">
-        <v>3369.4</v>
+        <v>2010.16</v>
       </c>
       <c r="I36">
-        <v>72.400000000000006</v>
+        <v>57.53</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -3594,75 +3627,75 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>1293.7</v>
+        <v>750.36</v>
       </c>
       <c r="O36">
-        <v>2247.1</v>
+        <v>1187.0719999999999</v>
       </c>
       <c r="P36">
-        <v>37.5</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>-194.8</v>
+        <v>51.133000000000003</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>42643</v>
       </c>
       <c r="S36">
-        <v>0</v>
+        <v>4619</v>
       </c>
       <c r="T36">
-        <v>1122.3</v>
+        <v>823.08799999999997</v>
       </c>
       <c r="U36">
-        <v>1022.1</v>
+        <v>647.51300000000003</v>
       </c>
       <c r="V36">
-        <v>195.1</v>
+        <v>76.138999999999996</v>
       </c>
       <c r="W36">
         <v>0</v>
       </c>
       <c r="X36">
-        <v>-53.3</v>
+        <v>-18.207999999999998</v>
       </c>
       <c r="Y36">
-        <v>25.8</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>-319.3</v>
+        <v>0.54900000000000004</v>
       </c>
       <c r="AA36">
-        <v>74.5</v>
+        <v>6.2910000000000004</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>42735</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>82</v>
+        <v>25.166</v>
       </c>
       <c r="D37">
-        <v>548.1</v>
+        <v>362.83</v>
       </c>
       <c r="E37">
-        <v>384.1</v>
+        <v>312.99799999999999</v>
       </c>
       <c r="F37">
-        <v>424</v>
+        <v>271.93900000000002</v>
       </c>
       <c r="G37">
-        <v>2466.1999999999998</v>
+        <v>1538.7159999999999</v>
       </c>
       <c r="H37">
-        <v>3545.6</v>
+        <v>2139.9409999999998</v>
       </c>
       <c r="I37">
-        <v>85.9</v>
+        <v>56.731999999999999</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -3677,75 +3710,75 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>1341.9</v>
+        <v>829.44</v>
       </c>
       <c r="O37">
-        <v>2345.1999999999998</v>
+        <v>1302.26</v>
       </c>
       <c r="P37">
-        <v>41.6</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>153.4</v>
+        <v>61.49</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>42735</v>
       </c>
       <c r="S37">
-        <v>6590</v>
+        <v>4665</v>
       </c>
       <c r="T37">
-        <v>1200.4000000000001</v>
+        <v>837.68100000000004</v>
       </c>
       <c r="U37">
-        <v>1175.5</v>
+        <v>709.00300000000004</v>
       </c>
       <c r="V37">
-        <v>221.2</v>
+        <v>101.03700000000001</v>
       </c>
       <c r="W37">
         <v>0</v>
       </c>
       <c r="X37">
-        <v>-40.700000000000003</v>
+        <v>-41.639000000000003</v>
       </c>
       <c r="Y37">
-        <v>27.7</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>-9.6</v>
+        <v>18.954999999999998</v>
       </c>
       <c r="AA37">
-        <v>80.2</v>
+        <v>25.166</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>42825</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>118.2</v>
+        <v>10.7</v>
       </c>
       <c r="D38">
-        <v>618.1</v>
+        <v>340.6</v>
       </c>
       <c r="E38">
-        <v>544.29999999999995</v>
+        <v>270.11099999999999</v>
       </c>
       <c r="F38">
-        <v>477.6</v>
+        <v>250</v>
       </c>
       <c r="G38">
-        <v>2769</v>
+        <v>1616.0820000000001</v>
       </c>
       <c r="H38">
-        <v>3879.2</v>
+        <v>2267.3829999999998</v>
       </c>
       <c r="I38">
-        <v>96.4</v>
+        <v>48.689</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -3760,75 +3793,75 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>1455.8</v>
+        <v>856.58500000000004</v>
       </c>
       <c r="O38">
-        <v>2536.8000000000002</v>
+        <v>1369.134</v>
       </c>
       <c r="P38">
-        <v>46.1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>47</v>
+        <v>114.2</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>42825</v>
       </c>
       <c r="S38">
-        <v>7082</v>
+        <v>4711</v>
       </c>
       <c r="T38">
-        <v>1342.4</v>
+        <v>898.24900000000002</v>
       </c>
       <c r="U38">
-        <v>1222.5</v>
+        <v>823.24900000000002</v>
       </c>
       <c r="V38">
-        <v>190.4</v>
+        <v>129.69999999999999</v>
       </c>
       <c r="W38">
         <v>0</v>
       </c>
       <c r="X38">
-        <v>-43.8</v>
+        <v>15.8</v>
       </c>
       <c r="Y38">
-        <v>30.6</v>
+        <v>0</v>
       </c>
       <c r="Z38">
         <v>-17.8</v>
       </c>
       <c r="AA38">
-        <v>118.2</v>
+        <v>10.7</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>42916</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>104</v>
+        <v>23</v>
       </c>
       <c r="D39">
-        <v>576.9</v>
+        <v>363.5</v>
       </c>
       <c r="E39">
-        <v>474.7</v>
+        <v>274.476</v>
       </c>
       <c r="F39">
-        <v>448.2</v>
+        <v>267.8</v>
       </c>
       <c r="G39">
-        <v>2035.3</v>
+        <v>1604.634</v>
       </c>
       <c r="H39">
-        <v>3206.2</v>
+        <v>2360.6909999999998</v>
       </c>
       <c r="I39">
-        <v>87.8</v>
+        <v>42.170999999999999</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -3843,75 +3876,75 @@
         <v>0</v>
       </c>
       <c r="N39">
-        <v>1543</v>
+        <v>885.51900000000001</v>
       </c>
       <c r="O39">
-        <v>2669.9</v>
+        <v>1438.5519999999999</v>
       </c>
       <c r="P39">
-        <v>43.1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>-596.4</v>
+        <v>29.9</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>42916</v>
       </c>
       <c r="S39">
-        <v>7448</v>
+        <v>4792</v>
       </c>
       <c r="T39">
-        <v>536.29999999999995</v>
+        <v>922.13900000000001</v>
       </c>
       <c r="U39">
-        <v>626.1</v>
+        <v>853.13699999999994</v>
       </c>
       <c r="V39">
-        <v>319.39999999999998</v>
+        <v>144.80000000000001</v>
       </c>
       <c r="W39">
         <v>0</v>
       </c>
       <c r="X39">
-        <v>-920.4</v>
+        <v>-33</v>
       </c>
       <c r="Y39">
-        <v>28.3</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>35.700000000000003</v>
+        <v>4.5</v>
       </c>
       <c r="AA39">
-        <v>104</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>43008</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>112.1</v>
+        <v>26.7</v>
       </c>
       <c r="D40">
-        <v>618.4</v>
+        <v>374.2</v>
       </c>
       <c r="E40">
-        <v>498.7</v>
+        <v>257.99900000000002</v>
       </c>
       <c r="F40">
-        <v>483.3</v>
+        <v>280.60000000000002</v>
       </c>
       <c r="G40">
-        <v>2208.6999999999998</v>
+        <v>1650.6510000000001</v>
       </c>
       <c r="H40">
-        <v>3330.6</v>
+        <v>2395.279</v>
       </c>
       <c r="I40">
-        <v>107.2</v>
+        <v>44.542999999999999</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -3926,75 +3959,75 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>1611.9</v>
+        <v>910.63900000000001</v>
       </c>
       <c r="O40">
-        <v>2786.7</v>
+        <v>1493.0540000000001</v>
       </c>
       <c r="P40">
-        <v>43.3</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>290.3</v>
+        <v>52.7</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>43008</v>
       </c>
       <c r="S40">
-        <v>0</v>
+        <v>4903</v>
       </c>
       <c r="T40">
-        <v>543.9</v>
+        <v>902.22500000000002</v>
       </c>
       <c r="U40">
-        <v>916.4</v>
+        <v>905.79399999999998</v>
       </c>
       <c r="V40">
-        <v>247</v>
+        <v>162.4</v>
       </c>
       <c r="W40">
         <v>0</v>
       </c>
       <c r="X40">
-        <v>-168.9</v>
+        <v>-80.8</v>
       </c>
       <c r="Y40">
-        <v>27.6</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>243.1</v>
+        <v>-7.2</v>
       </c>
       <c r="AA40">
-        <v>114.4</v>
+        <v>26.7</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>43100</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>125.7</v>
+        <v>-29</v>
       </c>
       <c r="D41">
-        <v>651.1</v>
+        <v>416.6</v>
       </c>
       <c r="E41">
-        <v>546.6</v>
+        <v>348.2</v>
       </c>
       <c r="F41">
-        <v>511.9</v>
+        <v>311.2</v>
       </c>
       <c r="G41">
-        <v>2384.6</v>
+        <v>1716.8</v>
       </c>
       <c r="H41">
-        <v>3586.2</v>
+        <v>2257.9</v>
       </c>
       <c r="I41">
-        <v>95.9</v>
+        <v>70</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -4009,128 +4042,1041 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>1645.6</v>
+        <v>1027.2</v>
       </c>
       <c r="O41">
-        <v>2873</v>
+        <v>1668.5</v>
       </c>
       <c r="P41">
-        <v>48.2</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>-34.1</v>
+        <v>-94.8</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>43100</v>
       </c>
       <c r="S41">
-        <v>8075</v>
+        <v>5066</v>
       </c>
       <c r="T41">
-        <v>713.2</v>
+        <v>589.4</v>
       </c>
       <c r="U41">
-        <v>882.3</v>
+        <v>811</v>
       </c>
       <c r="V41">
-        <v>220.8</v>
+        <v>157.5</v>
       </c>
       <c r="W41">
         <v>0</v>
       </c>
       <c r="X41">
-        <v>-30.3</v>
+        <v>-317.60000000000002</v>
       </c>
       <c r="Y41">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>-183.4</v>
+        <v>79</v>
       </c>
       <c r="AA41">
-        <v>123.4</v>
+        <v>-29</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>43190</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>41.6</v>
+      </c>
+      <c r="D42">
+        <v>399</v>
+      </c>
+      <c r="E42">
+        <v>313.10000000000002</v>
+      </c>
+      <c r="F42">
+        <v>301.8</v>
+      </c>
+      <c r="G42">
+        <v>1735.8</v>
+      </c>
+      <c r="H42">
+        <v>2400.6999999999998</v>
+      </c>
+      <c r="I42">
+        <v>55.7</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>1029.7</v>
+      </c>
+      <c r="O42">
+        <v>1707.2</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>24.6</v>
+      </c>
+      <c r="R42">
+        <v>43190</v>
+      </c>
+      <c r="S42">
+        <v>5275</v>
+      </c>
+      <c r="T42">
+        <v>693.5</v>
+      </c>
+      <c r="U42">
+        <v>835.6</v>
+      </c>
+      <c r="V42">
+        <v>139.69999999999999</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>-89.6</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>-13.9</v>
+      </c>
+      <c r="AA42">
+        <v>41.6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>49.3</v>
+      </c>
+      <c r="D43">
+        <v>441.3</v>
+      </c>
+      <c r="E43">
+        <v>333.6</v>
+      </c>
+      <c r="F43">
+        <v>328.2</v>
+      </c>
+      <c r="G43">
+        <v>1884.8</v>
+      </c>
+      <c r="H43">
+        <v>2575.6999999999998</v>
+      </c>
+      <c r="I43">
+        <v>63.7</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>1085.2</v>
+      </c>
+      <c r="O43">
+        <v>1795.5</v>
+      </c>
+      <c r="P43">
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <v>136.5</v>
+      </c>
+      <c r="R43">
+        <v>43281</v>
+      </c>
+      <c r="S43">
+        <v>5462</v>
+      </c>
+      <c r="T43">
+        <v>780.2</v>
+      </c>
+      <c r="U43">
+        <v>972.1</v>
+      </c>
+      <c r="V43">
+        <v>142.30000000000001</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>-12.8</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>24.6</v>
+      </c>
+      <c r="AA43">
+        <v>49.3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>58.7</v>
+      </c>
+      <c r="D44">
+        <v>453.9</v>
+      </c>
+      <c r="E44">
+        <v>324.39999999999998</v>
+      </c>
+      <c r="F44">
+        <v>342.3</v>
+      </c>
+      <c r="G44">
+        <v>2078.1</v>
+      </c>
+      <c r="H44">
+        <v>2763.5</v>
+      </c>
+      <c r="I44">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>1111.9000000000001</v>
+      </c>
+      <c r="O44">
+        <v>1871.9</v>
+      </c>
+      <c r="P44">
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <v>197.2</v>
+      </c>
+      <c r="R44">
+        <v>43373</v>
+      </c>
+      <c r="S44">
+        <v>5639</v>
+      </c>
+      <c r="T44">
+        <v>891.6</v>
+      </c>
+      <c r="U44">
+        <v>1169.3</v>
+      </c>
+      <c r="V44">
+        <v>176.7</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>9.4</v>
+      </c>
+      <c r="Y44">
+        <v>0</v>
+      </c>
+      <c r="Z44">
+        <v>29.3</v>
+      </c>
+      <c r="AA44">
+        <v>58.7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>182.6</v>
+      </c>
+      <c r="D45">
+        <v>507</v>
+      </c>
+      <c r="E45">
+        <v>444.5</v>
+      </c>
+      <c r="F45">
+        <v>378.5</v>
+      </c>
+      <c r="G45">
+        <v>2220.9</v>
+      </c>
+      <c r="H45">
+        <v>3078</v>
+      </c>
+      <c r="I45">
+        <v>86.4</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>1256.4000000000001</v>
+      </c>
+      <c r="O45">
+        <v>2067.8000000000002</v>
+      </c>
+      <c r="P45">
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <v>-56.9</v>
+      </c>
+      <c r="R45">
+        <v>43465</v>
+      </c>
+      <c r="S45">
+        <v>5845</v>
+      </c>
+      <c r="T45">
+        <v>1010.2</v>
+      </c>
+      <c r="U45">
+        <v>1112.4000000000001</v>
+      </c>
+      <c r="V45">
+        <v>180.2</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>-109.6</v>
+      </c>
+      <c r="Y45">
+        <v>0</v>
+      </c>
+      <c r="Z45">
+        <v>-100.2</v>
+      </c>
+      <c r="AA45">
+        <v>182.6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>58.8</v>
+      </c>
+      <c r="D46">
+        <v>472.6</v>
+      </c>
+      <c r="E46">
+        <v>381</v>
+      </c>
+      <c r="F46">
+        <v>359.6</v>
+      </c>
+      <c r="G46">
+        <v>2313.3000000000002</v>
+      </c>
+      <c r="H46">
+        <v>3205.7</v>
+      </c>
+      <c r="I46">
+        <v>69.2</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>1254.3</v>
+      </c>
+      <c r="O46">
+        <v>2147.6</v>
+      </c>
+      <c r="P46">
+        <v>39.4</v>
+      </c>
+      <c r="Q46">
+        <v>104.5</v>
+      </c>
+      <c r="R46">
+        <v>43555</v>
+      </c>
+      <c r="S46">
+        <v>6015</v>
+      </c>
+      <c r="T46">
+        <v>1058.0999999999999</v>
+      </c>
+      <c r="U46">
+        <v>1216.9000000000001</v>
+      </c>
+      <c r="V46">
+        <v>201.3</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>-57.8</v>
+      </c>
+      <c r="Y46">
+        <v>27.5</v>
+      </c>
+      <c r="Z46">
+        <v>-28.8</v>
+      </c>
+      <c r="AA46">
+        <v>58.8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>72.7</v>
+      </c>
+      <c r="D47">
+        <v>524.20000000000005</v>
+      </c>
+      <c r="E47">
+        <v>403.1</v>
+      </c>
+      <c r="F47">
+        <v>395.9</v>
+      </c>
+      <c r="G47">
+        <v>2360.6999999999998</v>
+      </c>
+      <c r="H47">
+        <v>3369.4</v>
+      </c>
+      <c r="I47">
+        <v>72.400000000000006</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>1293.7</v>
+      </c>
+      <c r="O47">
+        <v>2247.1</v>
+      </c>
+      <c r="P47">
+        <v>37.5</v>
+      </c>
+      <c r="Q47">
+        <v>-194.8</v>
+      </c>
+      <c r="R47">
+        <v>43646</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>1122.3</v>
+      </c>
+      <c r="U47">
+        <v>1022.1</v>
+      </c>
+      <c r="V47">
+        <v>195.1</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>-53.3</v>
+      </c>
+      <c r="Y47">
+        <v>25.8</v>
+      </c>
+      <c r="Z47">
+        <v>-319.3</v>
+      </c>
+      <c r="AA47">
+        <v>74.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>82</v>
+      </c>
+      <c r="D48">
+        <v>548.1</v>
+      </c>
+      <c r="E48">
+        <v>384.1</v>
+      </c>
+      <c r="F48">
+        <v>424</v>
+      </c>
+      <c r="G48">
+        <v>2466.1999999999998</v>
+      </c>
+      <c r="H48">
+        <v>3545.6</v>
+      </c>
+      <c r="I48">
+        <v>85.9</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>1341.9</v>
+      </c>
+      <c r="O48">
+        <v>2345.1999999999998</v>
+      </c>
+      <c r="P48">
+        <v>41.6</v>
+      </c>
+      <c r="Q48">
+        <v>153.4</v>
+      </c>
+      <c r="R48">
+        <v>43738</v>
+      </c>
+      <c r="S48">
+        <v>6590</v>
+      </c>
+      <c r="T48">
+        <v>1200.4000000000001</v>
+      </c>
+      <c r="U48">
+        <v>1175.5</v>
+      </c>
+      <c r="V48">
+        <v>221.2</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>-40.700000000000003</v>
+      </c>
+      <c r="Y48">
+        <v>27.7</v>
+      </c>
+      <c r="Z48">
+        <v>-9.6</v>
+      </c>
+      <c r="AA48">
+        <v>80.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>118.2</v>
+      </c>
+      <c r="D49">
+        <v>618.1</v>
+      </c>
+      <c r="E49">
+        <v>544.29999999999995</v>
+      </c>
+      <c r="F49">
+        <v>477.6</v>
+      </c>
+      <c r="G49">
+        <v>2769</v>
+      </c>
+      <c r="H49">
+        <v>3879.2</v>
+      </c>
+      <c r="I49">
+        <v>96.4</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>1455.8</v>
+      </c>
+      <c r="O49">
+        <v>2536.8000000000002</v>
+      </c>
+      <c r="P49">
+        <v>46.1</v>
+      </c>
+      <c r="Q49">
+        <v>47</v>
+      </c>
+      <c r="R49">
+        <v>43830</v>
+      </c>
+      <c r="S49">
+        <v>7082</v>
+      </c>
+      <c r="T49">
+        <v>1342.4</v>
+      </c>
+      <c r="U49">
+        <v>1222.5</v>
+      </c>
+      <c r="V49">
+        <v>190.4</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>-43.8</v>
+      </c>
+      <c r="Y49">
+        <v>30.6</v>
+      </c>
+      <c r="Z49">
+        <v>-17.8</v>
+      </c>
+      <c r="AA49">
+        <v>118.2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>104</v>
+      </c>
+      <c r="D50">
+        <v>576.9</v>
+      </c>
+      <c r="E50">
+        <v>474.7</v>
+      </c>
+      <c r="F50">
+        <v>448.2</v>
+      </c>
+      <c r="G50">
+        <v>2035.3</v>
+      </c>
+      <c r="H50">
+        <v>3206.2</v>
+      </c>
+      <c r="I50">
+        <v>87.8</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>1543</v>
+      </c>
+      <c r="O50">
+        <v>2669.9</v>
+      </c>
+      <c r="P50">
+        <v>43.1</v>
+      </c>
+      <c r="Q50">
+        <v>-596.4</v>
+      </c>
+      <c r="R50">
+        <v>43921</v>
+      </c>
+      <c r="S50">
+        <v>7448</v>
+      </c>
+      <c r="T50">
+        <v>536.29999999999995</v>
+      </c>
+      <c r="U50">
+        <v>626.1</v>
+      </c>
+      <c r="V50">
+        <v>319.39999999999998</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>-920.4</v>
+      </c>
+      <c r="Y50">
+        <v>28.3</v>
+      </c>
+      <c r="Z50">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="AA50">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>112.1</v>
+      </c>
+      <c r="D51">
+        <v>618.4</v>
+      </c>
+      <c r="E51">
+        <v>498.7</v>
+      </c>
+      <c r="F51">
+        <v>483.3</v>
+      </c>
+      <c r="G51">
+        <v>2208.6999999999998</v>
+      </c>
+      <c r="H51">
+        <v>3330.6</v>
+      </c>
+      <c r="I51">
+        <v>107.2</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>1611.9</v>
+      </c>
+      <c r="O51">
+        <v>2786.7</v>
+      </c>
+      <c r="P51">
+        <v>43.3</v>
+      </c>
+      <c r="Q51">
+        <v>290.3</v>
+      </c>
+      <c r="R51">
+        <v>44012</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>543.9</v>
+      </c>
+      <c r="U51">
+        <v>916.4</v>
+      </c>
+      <c r="V51">
+        <v>247</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>-168.9</v>
+      </c>
+      <c r="Y51">
+        <v>27.6</v>
+      </c>
+      <c r="Z51">
+        <v>243.1</v>
+      </c>
+      <c r="AA51">
+        <v>114.4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>125.7</v>
+      </c>
+      <c r="D52">
+        <v>651.1</v>
+      </c>
+      <c r="E52">
+        <v>546.6</v>
+      </c>
+      <c r="F52">
+        <v>511.9</v>
+      </c>
+      <c r="G52">
+        <v>2384.6</v>
+      </c>
+      <c r="H52">
+        <v>3586.2</v>
+      </c>
+      <c r="I52">
+        <v>95.9</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>1645.6</v>
+      </c>
+      <c r="O52">
+        <v>2873</v>
+      </c>
+      <c r="P52">
+        <v>48.2</v>
+      </c>
+      <c r="Q52">
+        <v>-34.1</v>
+      </c>
+      <c r="R52">
+        <v>44104</v>
+      </c>
+      <c r="S52">
+        <v>8075</v>
+      </c>
+      <c r="T52">
+        <v>713.2</v>
+      </c>
+      <c r="U52">
+        <v>882.3</v>
+      </c>
+      <c r="V52">
+        <v>220.8</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>-30.3</v>
+      </c>
+      <c r="Y52">
+        <v>31</v>
+      </c>
+      <c r="Z52">
+        <v>-183.4</v>
+      </c>
+      <c r="AA52">
+        <v>123.4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
         <v>146.69999999999999</v>
       </c>
-      <c r="D42">
+      <c r="D53">
         <v>748</v>
       </c>
-      <c r="E42">
+      <c r="E53">
         <v>720</v>
       </c>
-      <c r="F42">
+      <c r="F53">
         <v>581</v>
       </c>
-      <c r="G42">
+      <c r="G53">
         <v>2740.4</v>
       </c>
-      <c r="H42">
+      <c r="H53">
         <v>4044.5</v>
       </c>
-      <c r="I42">
+      <c r="I53">
         <v>141.6</v>
       </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
         <v>1829.5</v>
       </c>
-      <c r="O42">
+      <c r="O53">
         <v>3188.5</v>
       </c>
-      <c r="P42">
+      <c r="P53">
         <v>53.1</v>
       </c>
-      <c r="Q42">
+      <c r="Q53">
         <v>179.5</v>
       </c>
-      <c r="R42">
+      <c r="R53">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S53">
         <v>8238</v>
       </c>
-      <c r="T42">
+      <c r="T53">
         <v>856</v>
       </c>
-      <c r="U42">
+      <c r="U53">
         <v>1061.8</v>
       </c>
-      <c r="V42">
+      <c r="V53">
         <v>296.5</v>
       </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
         <v>-52</v>
       </c>
-      <c r="Y42">
+      <c r="Y53">
         <v>34</v>
       </c>
-      <c r="Z42">
+      <c r="Z53">
         <v>-3.4</v>
       </c>
-      <c r="AA42">
+      <c r="AA53">
         <v>146.69999999999999</v>
       </c>
     </row>
